--- a/AutoCmdb/demo_files/資產/DEMO_資產.xlsx
+++ b/AutoCmdb/demo_files/資產/DEMO_資產.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="223">
   <si>
     <t>價格</t>
   </si>
@@ -38,7 +38,16 @@
     <t>類型</t>
   </si>
   <si>
-    <t>未使用</t>
+    <t>使用中</t>
+  </si>
+  <si>
+    <t>PC-001</t>
+  </si>
+  <si>
+    <t>研發部(RD)</t>
+  </si>
+  <si>
+    <t>PC(電腦)</t>
   </si>
   <si>
     <t>A-001</t>
@@ -47,244 +56,301 @@
     <t>A(延長線)</t>
   </si>
   <si>
-    <t>使用中</t>
-  </si>
-  <si>
-    <t>101(愛葛莎)</t>
+    <t>P-001</t>
+  </si>
+  <si>
+    <t>公關部(PR)</t>
+  </si>
+  <si>
+    <t>P(變壓器)</t>
+  </si>
+  <si>
+    <t>PC-002</t>
+  </si>
+  <si>
+    <t>201(Ada)</t>
+  </si>
+  <si>
+    <t>PC-003</t>
+  </si>
+  <si>
+    <t>資訊部(IT)</t>
+  </si>
+  <si>
+    <t>A-002</t>
+  </si>
+  <si>
+    <t>PC-004</t>
+  </si>
+  <si>
+    <t>人資部(HR)</t>
+  </si>
+  <si>
+    <t>A-003</t>
+  </si>
+  <si>
+    <t>運營部(OM)</t>
+  </si>
+  <si>
+    <t>PC-005</t>
   </si>
   <si>
     <t>M-001</t>
   </si>
   <si>
-    <t>人資部(HR)</t>
-  </si>
-  <si>
     <t>M(滑鼠)</t>
   </si>
   <si>
+    <t>PC-006</t>
+  </si>
+  <si>
+    <t>P-002</t>
+  </si>
+  <si>
     <t>M-002</t>
   </si>
   <si>
-    <t>P-001</t>
-  </si>
-  <si>
-    <t>公關部(PR)</t>
-  </si>
-  <si>
-    <t>P(變壓器)</t>
-  </si>
-  <si>
-    <t>A-002</t>
-  </si>
-  <si>
-    <t>運營部(OM)</t>
-  </si>
-  <si>
-    <t>PC-001</t>
-  </si>
-  <si>
-    <t>研發部(RD)</t>
-  </si>
-  <si>
-    <t>PC(電腦)</t>
+    <t>PC-007</t>
+  </si>
+  <si>
+    <t>PC-008</t>
   </si>
   <si>
     <t>M-003</t>
   </si>
   <si>
-    <t>PC-002</t>
+    <t>A-004</t>
+  </si>
+  <si>
+    <t>A-005</t>
+  </si>
+  <si>
+    <t>M-004</t>
+  </si>
+  <si>
+    <t>A-006</t>
+  </si>
+  <si>
+    <t>P-003</t>
+  </si>
+  <si>
+    <t>PC-009</t>
+  </si>
+  <si>
+    <t>P-004</t>
+  </si>
+  <si>
+    <t>PC-010</t>
+  </si>
+  <si>
+    <t>PC-011</t>
+  </si>
+  <si>
+    <t>P-005</t>
+  </si>
+  <si>
+    <t>A-007</t>
+  </si>
+  <si>
+    <t>A-008</t>
+  </si>
+  <si>
+    <t>A-009</t>
+  </si>
+  <si>
+    <t>A-010</t>
+  </si>
+  <si>
+    <t>PC-012</t>
+  </si>
+  <si>
+    <t>PC-013</t>
+  </si>
+  <si>
+    <t>P-006</t>
+  </si>
+  <si>
+    <t>PC-014</t>
+  </si>
+  <si>
+    <t>PC-015</t>
+  </si>
+  <si>
+    <t>A-011</t>
+  </si>
+  <si>
+    <t>PC-016</t>
+  </si>
+  <si>
+    <t>512(Betty)</t>
+  </si>
+  <si>
+    <t>P-007</t>
   </si>
   <si>
     <t>客服部(CS)</t>
   </si>
   <si>
-    <t>M-004</t>
+    <t>A-012</t>
+  </si>
+  <si>
+    <t>P-008</t>
+  </si>
+  <si>
+    <t>P-009</t>
+  </si>
+  <si>
+    <t>A-013</t>
+  </si>
+  <si>
+    <t>P-010</t>
+  </si>
+  <si>
+    <t>PC-017</t>
+  </si>
+  <si>
+    <t>PC-018</t>
+  </si>
+  <si>
+    <t>P-011</t>
   </si>
   <si>
     <t>M-005</t>
   </si>
   <si>
-    <t>PC-003</t>
-  </si>
-  <si>
-    <t>資訊部(IT)</t>
-  </si>
-  <si>
-    <t>P-002</t>
-  </si>
-  <si>
-    <t>P-003</t>
+    <t>PC-019</t>
+  </si>
+  <si>
+    <t>PC-020</t>
   </si>
   <si>
     <t>M-006</t>
   </si>
   <si>
-    <t>P-004</t>
-  </si>
-  <si>
-    <t>PC-004</t>
-  </si>
-  <si>
-    <t>P-005</t>
-  </si>
-  <si>
-    <t>A-003</t>
-  </si>
-  <si>
-    <t>PC-005</t>
-  </si>
-  <si>
-    <t>P-006</t>
+    <t>205(Bess)</t>
   </si>
   <si>
     <t>M-007</t>
   </si>
   <si>
-    <t>P-007</t>
+    <t>PC-021</t>
+  </si>
+  <si>
+    <t>502(Agatha)</t>
+  </si>
+  <si>
+    <t>PC-022</t>
+  </si>
+  <si>
+    <t>PC-023</t>
   </si>
   <si>
     <t>M-008</t>
   </si>
   <si>
+    <t>P-012</t>
+  </si>
+  <si>
+    <t>P-013</t>
+  </si>
+  <si>
     <t>M-009</t>
   </si>
   <si>
     <t>M-010</t>
   </si>
   <si>
-    <t>P-008</t>
-  </si>
-  <si>
-    <t>A-004</t>
+    <t>A-014</t>
+  </si>
+  <si>
+    <t>PC-024</t>
   </si>
   <si>
     <t>M-011</t>
   </si>
   <si>
-    <t>A-005</t>
-  </si>
-  <si>
-    <t>A-006</t>
+    <t>A-015</t>
+  </si>
+  <si>
+    <t>P-014</t>
   </si>
   <si>
     <t>M-012</t>
   </si>
   <si>
-    <t>A-007</t>
-  </si>
-  <si>
-    <t>PC-006</t>
-  </si>
-  <si>
     <t>M-013</t>
   </si>
   <si>
-    <t>A-008</t>
-  </si>
-  <si>
-    <t>PC-007</t>
+    <t>P-015</t>
   </si>
   <si>
     <t>M-014</t>
   </si>
   <si>
+    <t>P-016</t>
+  </si>
+  <si>
+    <t>A-016</t>
+  </si>
+  <si>
     <t>M-015</t>
   </si>
   <si>
-    <t>A-009</t>
-  </si>
-  <si>
-    <t>A-010</t>
+    <t>PC-025</t>
+  </si>
+  <si>
+    <t>P-017</t>
+  </si>
+  <si>
+    <t>A-017</t>
+  </si>
+  <si>
+    <t>P-018</t>
   </si>
   <si>
     <t>M-016</t>
   </si>
   <si>
-    <t>P-009</t>
-  </si>
-  <si>
-    <t>PC-008</t>
+    <t>A-018</t>
+  </si>
+  <si>
+    <t>P-019</t>
+  </si>
+  <si>
+    <t>A-019</t>
+  </si>
+  <si>
+    <t>P-020</t>
+  </si>
+  <si>
+    <t>PC-026</t>
+  </si>
+  <si>
+    <t>PC-027</t>
+  </si>
+  <si>
+    <t>A-020</t>
   </si>
   <si>
     <t>M-017</t>
   </si>
   <si>
-    <t>A-011</t>
-  </si>
-  <si>
-    <t>PC-009</t>
-  </si>
-  <si>
-    <t>A-012</t>
-  </si>
-  <si>
-    <t>PC-010</t>
-  </si>
-  <si>
-    <t>P-010</t>
-  </si>
-  <si>
-    <t>P-011</t>
-  </si>
-  <si>
-    <t>P-012</t>
-  </si>
-  <si>
-    <t>PC-011</t>
-  </si>
-  <si>
-    <t>P-013</t>
-  </si>
-  <si>
-    <t>P-014</t>
-  </si>
-  <si>
-    <t>P-015</t>
-  </si>
-  <si>
-    <t>PC-012</t>
-  </si>
-  <si>
-    <t>A-013</t>
-  </si>
-  <si>
-    <t>A-014</t>
-  </si>
-  <si>
-    <t>PC-013</t>
-  </si>
-  <si>
-    <t>PC-014</t>
-  </si>
-  <si>
-    <t>PC-015</t>
-  </si>
-  <si>
-    <t>PC-016</t>
-  </si>
-  <si>
-    <t>PC-017</t>
-  </si>
-  <si>
-    <t>A-015</t>
-  </si>
-  <si>
-    <t>A-016</t>
+    <t>A-021</t>
   </si>
   <si>
     <t>M-018</t>
   </si>
   <si>
-    <t>A-017</t>
-  </si>
-  <si>
-    <t>A-018</t>
-  </si>
-  <si>
-    <t>A-019</t>
-  </si>
-  <si>
-    <t>A-020</t>
+    <t>A-022</t>
+  </si>
+  <si>
+    <t>P-021</t>
+  </si>
+  <si>
+    <t>PC-028</t>
+  </si>
+  <si>
+    <t>P-022</t>
   </si>
   <si>
     <t>M-019</t>
@@ -293,443 +359,338 @@
     <t>M-020</t>
   </si>
   <si>
-    <t>PC-018</t>
-  </si>
-  <si>
-    <t>PC-019</t>
-  </si>
-  <si>
-    <t>PC-020</t>
-  </si>
-  <si>
-    <t>PC-021</t>
-  </si>
-  <si>
-    <t>P-016</t>
-  </si>
-  <si>
-    <t>P-017</t>
-  </si>
-  <si>
-    <t>A-021</t>
-  </si>
-  <si>
-    <t>PC-022</t>
-  </si>
-  <si>
-    <t>PC-023</t>
-  </si>
-  <si>
-    <t>P-018</t>
-  </si>
-  <si>
-    <t>PC-024</t>
-  </si>
-  <si>
-    <t>P-019</t>
-  </si>
-  <si>
     <t>M-021</t>
   </si>
   <si>
-    <t>PC-025</t>
-  </si>
-  <si>
-    <t>A-022</t>
+    <t>P-023</t>
+  </si>
+  <si>
+    <t>P-024</t>
+  </si>
+  <si>
+    <t>PC-029</t>
+  </si>
+  <si>
+    <t>A-023</t>
+  </si>
+  <si>
+    <t>PC-030</t>
+  </si>
+  <si>
+    <t>A-024</t>
+  </si>
+  <si>
+    <t>A-025</t>
+  </si>
+  <si>
+    <t>A-026</t>
+  </si>
+  <si>
+    <t>A-027</t>
+  </si>
+  <si>
+    <t>PC-031</t>
   </si>
   <si>
     <t>M-022</t>
   </si>
   <si>
-    <t>P-020</t>
+    <t>P-025</t>
+  </si>
+  <si>
+    <t>P-026</t>
   </si>
   <si>
     <t>M-023</t>
   </si>
   <si>
+    <t>PC-032</t>
+  </si>
+  <si>
+    <t>A-028</t>
+  </si>
+  <si>
+    <t>A-029</t>
+  </si>
+  <si>
+    <t>PC-033</t>
+  </si>
+  <si>
+    <t>P-027</t>
+  </si>
+  <si>
+    <t>P-028</t>
+  </si>
+  <si>
     <t>M-024</t>
   </si>
   <si>
-    <t>P-021</t>
+    <t>P-029</t>
+  </si>
+  <si>
+    <t>P-030</t>
+  </si>
+  <si>
+    <t>P-031</t>
+  </si>
+  <si>
+    <t>P-032</t>
+  </si>
+  <si>
+    <t>A-030</t>
+  </si>
+  <si>
+    <t>P-033</t>
+  </si>
+  <si>
+    <t>P-034</t>
+  </si>
+  <si>
+    <t>A-031</t>
   </si>
   <si>
     <t>M-025</t>
   </si>
   <si>
-    <t>A-023</t>
-  </si>
-  <si>
-    <t>A-024</t>
-  </si>
-  <si>
-    <t>PC-026</t>
-  </si>
-  <si>
-    <t>A-025</t>
-  </si>
-  <si>
-    <t>PC-027</t>
-  </si>
-  <si>
-    <t>P-022</t>
+    <t>P-035</t>
+  </si>
+  <si>
+    <t>P-036</t>
   </si>
   <si>
     <t>M-026</t>
   </si>
   <si>
-    <t>PC-028</t>
-  </si>
-  <si>
-    <t>A-026</t>
-  </si>
-  <si>
-    <t>PC-029</t>
-  </si>
-  <si>
-    <t>PC-030</t>
+    <t>A-032</t>
+  </si>
+  <si>
+    <t>PC-034</t>
+  </si>
+  <si>
+    <t>PC-035</t>
+  </si>
+  <si>
+    <t>P-037</t>
+  </si>
+  <si>
+    <t>P-038</t>
   </si>
   <si>
     <t>M-027</t>
   </si>
   <si>
+    <t>P-039</t>
+  </si>
+  <si>
+    <t>A-033</t>
+  </si>
+  <si>
+    <t>A-034</t>
+  </si>
+  <si>
     <t>M-028</t>
   </si>
   <si>
-    <t>P-023</t>
-  </si>
-  <si>
-    <t>A-027</t>
-  </si>
-  <si>
-    <t>A-028</t>
-  </si>
-  <si>
-    <t>P-024</t>
-  </si>
-  <si>
-    <t>A-029</t>
-  </si>
-  <si>
-    <t>PC-031</t>
-  </si>
-  <si>
-    <t>P-025</t>
+    <t>A-035</t>
+  </si>
+  <si>
+    <t>A-036</t>
+  </si>
+  <si>
+    <t>A-037</t>
+  </si>
+  <si>
+    <t>A-038</t>
+  </si>
+  <si>
+    <t>A-039</t>
   </si>
   <si>
     <t>M-029</t>
   </si>
   <si>
-    <t>P-026</t>
-  </si>
-  <si>
-    <t>PC-032</t>
-  </si>
-  <si>
-    <t>PC-033</t>
-  </si>
-  <si>
-    <t>P-027</t>
-  </si>
-  <si>
-    <t>PC-034</t>
-  </si>
-  <si>
-    <t>PC-035</t>
-  </si>
-  <si>
     <t>PC-036</t>
   </si>
   <si>
-    <t>A-030</t>
-  </si>
-  <si>
-    <t>P-028</t>
-  </si>
-  <si>
-    <t>P-029</t>
-  </si>
-  <si>
-    <t>P-030</t>
-  </si>
-  <si>
-    <t>P-031</t>
-  </si>
-  <si>
-    <t>A-031</t>
-  </si>
-  <si>
     <t>PC-037</t>
   </si>
   <si>
+    <t>M-030</t>
+  </si>
+  <si>
+    <t>P-040</t>
+  </si>
+  <si>
+    <t>M-031</t>
+  </si>
+  <si>
+    <t>A-040</t>
+  </si>
+  <si>
     <t>PC-038</t>
   </si>
   <si>
-    <t>A-032</t>
-  </si>
-  <si>
-    <t>M-030</t>
-  </si>
-  <si>
     <t>PC-039</t>
   </si>
   <si>
+    <t>M-032</t>
+  </si>
+  <si>
+    <t>M-033</t>
+  </si>
+  <si>
+    <t>M-034</t>
+  </si>
+  <si>
+    <t>A-041</t>
+  </si>
+  <si>
     <t>PC-040</t>
   </si>
   <si>
-    <t>P-032</t>
-  </si>
-  <si>
     <t>PC-041</t>
   </si>
   <si>
-    <t>A-033</t>
+    <t>M-035</t>
+  </si>
+  <si>
+    <t>M-036</t>
+  </si>
+  <si>
+    <t>M-037</t>
+  </si>
+  <si>
+    <t>P-041</t>
+  </si>
+  <si>
+    <t>P-042</t>
   </si>
   <si>
     <t>PC-042</t>
   </si>
   <si>
-    <t>A-034</t>
-  </si>
-  <si>
-    <t>A-035</t>
+    <t>M-038</t>
+  </si>
+  <si>
+    <t>M-039</t>
+  </si>
+  <si>
+    <t>M-040</t>
+  </si>
+  <si>
+    <t>M-041</t>
+  </si>
+  <si>
+    <t>P-043</t>
+  </si>
+  <si>
+    <t>A-042</t>
+  </si>
+  <si>
+    <t>M-042</t>
   </si>
   <si>
     <t>PC-043</t>
   </si>
   <si>
+    <t>P-044</t>
+  </si>
+  <si>
     <t>PC-044</t>
   </si>
   <si>
-    <t>A-036</t>
-  </si>
-  <si>
-    <t>P-033</t>
-  </si>
-  <si>
-    <t>P-034</t>
+    <t>M-043</t>
+  </si>
+  <si>
+    <t>A-043</t>
+  </si>
+  <si>
+    <t>M-044</t>
+  </si>
+  <si>
+    <t>M-045</t>
   </si>
   <si>
     <t>PC-045</t>
   </si>
   <si>
-    <t>A-037</t>
-  </si>
-  <si>
-    <t>A-038</t>
-  </si>
-  <si>
-    <t>P-035</t>
-  </si>
-  <si>
-    <t>A-039</t>
+    <t>P-045</t>
+  </si>
+  <si>
+    <t>M-046</t>
+  </si>
+  <si>
+    <t>M-047</t>
+  </si>
+  <si>
+    <t>M-048</t>
+  </si>
+  <si>
+    <t>P-046</t>
+  </si>
+  <si>
+    <t>A-044</t>
+  </si>
+  <si>
+    <t>A-045</t>
+  </si>
+  <si>
+    <t>M-049</t>
+  </si>
+  <si>
+    <t>M-050</t>
+  </si>
+  <si>
+    <t>A-046</t>
+  </si>
+  <si>
+    <t>A-047</t>
+  </si>
+  <si>
+    <t>P-047</t>
+  </si>
+  <si>
+    <t>M-051</t>
   </si>
   <si>
     <t>PC-046</t>
   </si>
   <si>
+    <t>A-048</t>
+  </si>
+  <si>
+    <t>A-049</t>
+  </si>
+  <si>
+    <t>P-048</t>
+  </si>
+  <si>
+    <t>P-049</t>
+  </si>
+  <si>
+    <t>P-050</t>
+  </si>
+  <si>
     <t>PC-047</t>
   </si>
   <si>
-    <t>A-040</t>
-  </si>
-  <si>
-    <t>P-036</t>
-  </si>
-  <si>
-    <t>P-037</t>
-  </si>
-  <si>
-    <t>P-038</t>
-  </si>
-  <si>
     <t>PC-048</t>
   </si>
   <si>
-    <t>M-031</t>
-  </si>
-  <si>
-    <t>A-041</t>
-  </si>
-  <si>
-    <t>P-039</t>
-  </si>
-  <si>
     <t>PC-049</t>
   </si>
   <si>
-    <t>A-042</t>
-  </si>
-  <si>
-    <t>PC-050</t>
-  </si>
-  <si>
-    <t>A-043</t>
-  </si>
-  <si>
-    <t>A-044</t>
-  </si>
-  <si>
-    <t>M-032</t>
-  </si>
-  <si>
-    <t>PC-051</t>
-  </si>
-  <si>
-    <t>P-040</t>
-  </si>
-  <si>
-    <t>P-041</t>
-  </si>
-  <si>
-    <t>M-033</t>
-  </si>
-  <si>
-    <t>PC-052</t>
-  </si>
-  <si>
-    <t>M-034</t>
-  </si>
-  <si>
-    <t>P-042</t>
-  </si>
-  <si>
-    <t>PC-053</t>
-  </si>
-  <si>
-    <t>A-045</t>
-  </si>
-  <si>
-    <t>A-046</t>
-  </si>
-  <si>
-    <t>PC-054</t>
-  </si>
-  <si>
-    <t>M-035</t>
-  </si>
-  <si>
-    <t>A-047</t>
-  </si>
-  <si>
-    <t>PC-055</t>
-  </si>
-  <si>
-    <t>M-036</t>
-  </si>
-  <si>
-    <t>P-043</t>
-  </si>
-  <si>
-    <t>PC-056</t>
-  </si>
-  <si>
-    <t>A-048</t>
-  </si>
-  <si>
-    <t>PC-057</t>
-  </si>
-  <si>
-    <t>PC-058</t>
-  </si>
-  <si>
-    <t>PC-059</t>
-  </si>
-  <si>
-    <t>P-044</t>
-  </si>
-  <si>
-    <t>M-037</t>
-  </si>
-  <si>
-    <t>P-045</t>
-  </si>
-  <si>
-    <t>A-049</t>
-  </si>
-  <si>
     <t>A-050</t>
   </si>
   <si>
-    <t>PC-060</t>
-  </si>
-  <si>
-    <t>P-046</t>
-  </si>
-  <si>
-    <t>P-047</t>
-  </si>
-  <si>
-    <t>PC-061</t>
-  </si>
-  <si>
-    <t>P-048</t>
-  </si>
-  <si>
-    <t>PC-062</t>
-  </si>
-  <si>
-    <t>P-049</t>
-  </si>
-  <si>
-    <t>A-051</t>
-  </si>
-  <si>
-    <t>PC-063</t>
-  </si>
-  <si>
-    <t>PC-064</t>
-  </si>
-  <si>
-    <t>110(柏莎)</t>
-  </si>
-  <si>
-    <t>PC-065</t>
-  </si>
-  <si>
-    <t>M-038</t>
-  </si>
-  <si>
-    <t>PC-066</t>
-  </si>
-  <si>
-    <t>PC-067</t>
-  </si>
-  <si>
-    <t>PC-068</t>
-  </si>
-  <si>
-    <t>PC-069</t>
-  </si>
-  <si>
-    <t>PC-070</t>
-  </si>
-  <si>
-    <t>A-052</t>
-  </si>
-  <si>
-    <t>M-039</t>
-  </si>
-  <si>
-    <t>M-040</t>
-  </si>
-  <si>
-    <t>001(托尼)</t>
-  </si>
-  <si>
-    <t>PC-071</t>
-  </si>
-  <si>
-    <t>M-041</t>
+    <t>M-052</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -769,12 +730,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -1072,7 +1032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H214"/>
+  <dimension ref="A1:H202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,9 +1078,11 @@
         <v>8</v>
       </c>
       <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1128,23 +1090,21 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
       </c>
       <c r="F3" t="s"/>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1159,12 +1119,14 @@
       </c>
       <c r="D4" t="s"/>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1183,32 +1145,32 @@
       </c>
       <c r="F5" t="s"/>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>400</v>
-      </c>
+      <c r="B6" t="s"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s"/>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s"/>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1223,14 +1185,14 @@
       </c>
       <c r="D7" t="s"/>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s"/>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1245,14 +1207,14 @@
       </c>
       <c r="D8" t="s"/>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s"/>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1267,14 +1229,14 @@
       </c>
       <c r="D9" t="s"/>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s"/>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1289,14 +1251,14 @@
       </c>
       <c r="D10" t="s"/>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s"/>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1311,14 +1273,14 @@
       </c>
       <c r="D11" t="s"/>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s"/>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1333,14 +1295,14 @@
       </c>
       <c r="D12" t="s"/>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s"/>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1355,14 +1317,14 @@
       </c>
       <c r="D13" t="s"/>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s"/>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1377,14 +1339,14 @@
       </c>
       <c r="D14" t="s"/>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s"/>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1399,14 +1361,14 @@
       </c>
       <c r="D15" t="s"/>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s"/>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1421,14 +1383,14 @@
       </c>
       <c r="D16" t="s"/>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s"/>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1443,14 +1405,14 @@
       </c>
       <c r="D17" t="s"/>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s"/>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1465,14 +1427,14 @@
       </c>
       <c r="D18" t="s"/>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s"/>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1487,14 +1449,14 @@
       </c>
       <c r="D19" t="s"/>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s"/>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1509,14 +1471,14 @@
       </c>
       <c r="D20" t="s"/>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s"/>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1531,14 +1493,14 @@
       </c>
       <c r="D21" t="s"/>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s"/>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1553,14 +1515,14 @@
       </c>
       <c r="D22" t="s"/>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s"/>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1575,14 +1537,14 @@
       </c>
       <c r="D23" t="s"/>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F23" t="s"/>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1597,14 +1559,14 @@
       </c>
       <c r="D24" t="s"/>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s"/>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1619,14 +1581,14 @@
       </c>
       <c r="D25" t="s"/>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s"/>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1641,14 +1603,14 @@
       </c>
       <c r="D26" t="s"/>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s"/>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1663,14 +1625,14 @@
       </c>
       <c r="D27" t="s"/>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s"/>
       <c r="G27" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1685,14 +1647,14 @@
       </c>
       <c r="D28" t="s"/>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s"/>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1707,14 +1669,14 @@
       </c>
       <c r="D29" t="s"/>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s"/>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1729,14 +1691,14 @@
       </c>
       <c r="D30" t="s"/>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s"/>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1751,14 +1713,14 @@
       </c>
       <c r="D31" t="s"/>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s"/>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1773,14 +1735,14 @@
       </c>
       <c r="D32" t="s"/>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F32" t="s"/>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1795,14 +1757,14 @@
       </c>
       <c r="D33" t="s"/>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s"/>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1817,14 +1779,14 @@
       </c>
       <c r="D34" t="s"/>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s"/>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1839,14 +1801,14 @@
       </c>
       <c r="D35" t="s"/>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s"/>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1861,14 +1823,14 @@
       </c>
       <c r="D36" t="s"/>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s"/>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1883,14 +1845,14 @@
       </c>
       <c r="D37" t="s"/>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s"/>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H37" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1905,36 +1867,36 @@
       </c>
       <c r="D38" t="s"/>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s"/>
       <c r="G38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>400</v>
-      </c>
+      <c r="B39" t="s"/>
       <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="D39" t="s"/>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s"/>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1953,10 +1915,10 @@
       </c>
       <c r="F40" t="s"/>
       <c r="G40" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H40" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1975,10 +1937,10 @@
       </c>
       <c r="F41" t="s"/>
       <c r="G41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1997,10 +1959,10 @@
       </c>
       <c r="F42" t="s"/>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2019,10 +1981,10 @@
       </c>
       <c r="F43" t="s"/>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2041,10 +2003,10 @@
       </c>
       <c r="F44" t="s"/>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2063,10 +2025,10 @@
       </c>
       <c r="F45" t="s"/>
       <c r="G45" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2085,10 +2047,10 @@
       </c>
       <c r="F46" t="s"/>
       <c r="G46" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2107,10 +2069,10 @@
       </c>
       <c r="F47" t="s"/>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2129,10 +2091,10 @@
       </c>
       <c r="F48" t="s"/>
       <c r="G48" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H48" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2151,10 +2113,10 @@
       </c>
       <c r="F49" t="s"/>
       <c r="G49" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2173,10 +2135,10 @@
       </c>
       <c r="F50" t="s"/>
       <c r="G50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2195,32 +2157,32 @@
       </c>
       <c r="F51" t="s"/>
       <c r="G51" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>400</v>
-      </c>
+      <c r="B52" t="s"/>
       <c r="C52" t="s">
         <v>7</v>
       </c>
-      <c r="D52" t="s"/>
+      <c r="D52" t="s">
+        <v>70</v>
+      </c>
       <c r="E52" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F52" t="s"/>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2235,36 +2197,36 @@
       </c>
       <c r="D53" t="s"/>
       <c r="E53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F53" t="s"/>
       <c r="G53" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>400</v>
-      </c>
+      <c r="B54" t="s"/>
       <c r="C54" t="s">
         <v>7</v>
       </c>
-      <c r="D54" t="s"/>
+      <c r="D54" t="s">
+        <v>73</v>
+      </c>
       <c r="E54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F54" t="s"/>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H54" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2279,14 +2241,14 @@
       </c>
       <c r="D55" t="s"/>
       <c r="E55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s"/>
       <c r="G55" t="s">
         <v>22</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2301,14 +2263,14 @@
       </c>
       <c r="D56" t="s"/>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F56" t="s"/>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H56" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2323,14 +2285,14 @@
       </c>
       <c r="D57" t="s"/>
       <c r="E57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s"/>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2345,14 +2307,14 @@
       </c>
       <c r="D58" t="s"/>
       <c r="E58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F58" t="s"/>
       <c r="G58" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2367,14 +2329,14 @@
       </c>
       <c r="D59" t="s"/>
       <c r="E59" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F59" t="s"/>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2389,14 +2351,14 @@
       </c>
       <c r="D60" t="s"/>
       <c r="E60" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F60" t="s"/>
       <c r="G60" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2411,14 +2373,14 @@
       </c>
       <c r="D61" t="s"/>
       <c r="E61" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F61" t="s"/>
       <c r="G61" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2433,14 +2395,14 @@
       </c>
       <c r="D62" t="s"/>
       <c r="E62" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F62" t="s"/>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2455,14 +2417,14 @@
       </c>
       <c r="D63" t="s"/>
       <c r="E63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s"/>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H63" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2477,14 +2439,14 @@
       </c>
       <c r="D64" t="s"/>
       <c r="E64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F64" t="s"/>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2499,14 +2461,14 @@
       </c>
       <c r="D65" t="s"/>
       <c r="E65" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F65" t="s"/>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="H65" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2521,14 +2483,14 @@
       </c>
       <c r="D66" t="s"/>
       <c r="E66" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F66" t="s"/>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H66" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2543,14 +2505,14 @@
       </c>
       <c r="D67" t="s"/>
       <c r="E67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s"/>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2565,14 +2527,14 @@
       </c>
       <c r="D68" t="s"/>
       <c r="E68" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F68" t="s"/>
       <c r="G68" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2587,14 +2549,14 @@
       </c>
       <c r="D69" t="s"/>
       <c r="E69" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F69" t="s"/>
       <c r="G69" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H69" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2609,14 +2571,14 @@
       </c>
       <c r="D70" t="s"/>
       <c r="E70" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F70" t="s"/>
       <c r="G70" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2631,14 +2593,14 @@
       </c>
       <c r="D71" t="s"/>
       <c r="E71" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F71" t="s"/>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2653,14 +2615,14 @@
       </c>
       <c r="D72" t="s"/>
       <c r="E72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F72" t="s"/>
       <c r="G72" t="s">
         <v>22</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2675,14 +2637,14 @@
       </c>
       <c r="D73" t="s"/>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F73" t="s"/>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2697,14 +2659,14 @@
       </c>
       <c r="D74" t="s"/>
       <c r="E74" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F74" t="s"/>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H74" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2719,14 +2681,14 @@
       </c>
       <c r="D75" t="s"/>
       <c r="E75" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F75" t="s"/>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2741,14 +2703,14 @@
       </c>
       <c r="D76" t="s"/>
       <c r="E76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F76" t="s"/>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H76" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2763,14 +2725,14 @@
       </c>
       <c r="D77" t="s"/>
       <c r="E77" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F77" t="s"/>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H77" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2785,14 +2747,14 @@
       </c>
       <c r="D78" t="s"/>
       <c r="E78" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F78" t="s"/>
       <c r="G78" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2807,14 +2769,14 @@
       </c>
       <c r="D79" t="s"/>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F79" t="s"/>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2829,14 +2791,14 @@
       </c>
       <c r="D80" t="s"/>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F80" t="s"/>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H80" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2851,14 +2813,14 @@
       </c>
       <c r="D81" t="s"/>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F81" t="s"/>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2873,14 +2835,14 @@
       </c>
       <c r="D82" t="s"/>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F82" t="s"/>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H82" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2895,14 +2857,14 @@
       </c>
       <c r="D83" t="s"/>
       <c r="E83" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F83" t="s"/>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H83" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2917,14 +2879,14 @@
       </c>
       <c r="D84" t="s"/>
       <c r="E84" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F84" t="s"/>
       <c r="G84" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2939,14 +2901,14 @@
       </c>
       <c r="D85" t="s"/>
       <c r="E85" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F85" t="s"/>
       <c r="G85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2961,14 +2923,14 @@
       </c>
       <c r="D86" t="s"/>
       <c r="E86" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F86" t="s"/>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2983,14 +2945,14 @@
       </c>
       <c r="D87" t="s"/>
       <c r="E87" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F87" t="s"/>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H87" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3005,14 +2967,14 @@
       </c>
       <c r="D88" t="s"/>
       <c r="E88" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F88" t="s"/>
       <c r="G88" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H88" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3027,14 +2989,14 @@
       </c>
       <c r="D89" t="s"/>
       <c r="E89" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F89" t="s"/>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3049,14 +3011,14 @@
       </c>
       <c r="D90" t="s"/>
       <c r="E90" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F90" t="s"/>
       <c r="G90" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3071,14 +3033,14 @@
       </c>
       <c r="D91" t="s"/>
       <c r="E91" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F91" t="s"/>
       <c r="G91" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3093,14 +3055,14 @@
       </c>
       <c r="D92" t="s"/>
       <c r="E92" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F92" t="s"/>
       <c r="G92" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3115,14 +3077,14 @@
       </c>
       <c r="D93" t="s"/>
       <c r="E93" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F93" t="s"/>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H93" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3137,14 +3099,14 @@
       </c>
       <c r="D94" t="s"/>
       <c r="E94" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F94" t="s"/>
       <c r="G94" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3159,14 +3121,14 @@
       </c>
       <c r="D95" t="s"/>
       <c r="E95" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F95" t="s"/>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H95" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3181,14 +3143,14 @@
       </c>
       <c r="D96" t="s"/>
       <c r="E96" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F96" t="s"/>
       <c r="G96" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H96" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3203,14 +3165,14 @@
       </c>
       <c r="D97" t="s"/>
       <c r="E97" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F97" t="s"/>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H97" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3225,14 +3187,14 @@
       </c>
       <c r="D98" t="s"/>
       <c r="E98" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F98" t="s"/>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H98" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3247,14 +3209,14 @@
       </c>
       <c r="D99" t="s"/>
       <c r="E99" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F99" t="s"/>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H99" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3269,14 +3231,14 @@
       </c>
       <c r="D100" t="s"/>
       <c r="E100" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F100" t="s"/>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H100" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3291,14 +3253,14 @@
       </c>
       <c r="D101" t="s"/>
       <c r="E101" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F101" t="s"/>
       <c r="G101" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3313,14 +3275,14 @@
       </c>
       <c r="D102" t="s"/>
       <c r="E102" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F102" t="s"/>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H102" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3335,14 +3297,14 @@
       </c>
       <c r="D103" t="s"/>
       <c r="E103" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F103" t="s"/>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3357,14 +3319,14 @@
       </c>
       <c r="D104" t="s"/>
       <c r="E104" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F104" t="s"/>
       <c r="G104" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H104" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3379,14 +3341,14 @@
       </c>
       <c r="D105" t="s"/>
       <c r="E105" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F105" t="s"/>
       <c r="G105" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3401,14 +3363,14 @@
       </c>
       <c r="D106" t="s"/>
       <c r="E106" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F106" t="s"/>
       <c r="G106" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3423,14 +3385,14 @@
       </c>
       <c r="D107" t="s"/>
       <c r="E107" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F107" t="s"/>
       <c r="G107" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3445,14 +3407,14 @@
       </c>
       <c r="D108" t="s"/>
       <c r="E108" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F108" t="s"/>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H108" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3467,14 +3429,14 @@
       </c>
       <c r="D109" t="s"/>
       <c r="E109" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F109" t="s"/>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3489,14 +3451,14 @@
       </c>
       <c r="D110" t="s"/>
       <c r="E110" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F110" t="s"/>
       <c r="G110" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H110" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3511,14 +3473,14 @@
       </c>
       <c r="D111" t="s"/>
       <c r="E111" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F111" t="s"/>
       <c r="G111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H111" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3533,14 +3495,14 @@
       </c>
       <c r="D112" t="s"/>
       <c r="E112" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F112" t="s"/>
       <c r="G112" t="s">
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3555,14 +3517,14 @@
       </c>
       <c r="D113" t="s"/>
       <c r="E113" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F113" t="s"/>
       <c r="G113" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H113" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3577,14 +3539,14 @@
       </c>
       <c r="D114" t="s"/>
       <c r="E114" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F114" t="s"/>
       <c r="G114" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3599,14 +3561,14 @@
       </c>
       <c r="D115" t="s"/>
       <c r="E115" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F115" t="s"/>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3621,14 +3583,14 @@
       </c>
       <c r="D116" t="s"/>
       <c r="E116" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F116" t="s"/>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3643,14 +3605,14 @@
       </c>
       <c r="D117" t="s"/>
       <c r="E117" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F117" t="s"/>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3665,14 +3627,14 @@
       </c>
       <c r="D118" t="s"/>
       <c r="E118" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F118" t="s"/>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H118" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3687,14 +3649,14 @@
       </c>
       <c r="D119" t="s"/>
       <c r="E119" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F119" t="s"/>
       <c r="G119" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3709,14 +3671,14 @@
       </c>
       <c r="D120" t="s"/>
       <c r="E120" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F120" t="s"/>
       <c r="G120" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H120" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3731,14 +3693,14 @@
       </c>
       <c r="D121" t="s"/>
       <c r="E121" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F121" t="s"/>
       <c r="G121" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H121" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3753,14 +3715,14 @@
       </c>
       <c r="D122" t="s"/>
       <c r="E122" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F122" t="s"/>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H122" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3775,14 +3737,14 @@
       </c>
       <c r="D123" t="s"/>
       <c r="E123" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F123" t="s"/>
       <c r="G123" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3797,14 +3759,14 @@
       </c>
       <c r="D124" t="s"/>
       <c r="E124" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F124" t="s"/>
       <c r="G124" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3819,14 +3781,14 @@
       </c>
       <c r="D125" t="s"/>
       <c r="E125" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F125" t="s"/>
       <c r="G125" t="s">
         <v>22</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3841,14 +3803,14 @@
       </c>
       <c r="D126" t="s"/>
       <c r="E126" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F126" t="s"/>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H126" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3863,14 +3825,14 @@
       </c>
       <c r="D127" t="s"/>
       <c r="E127" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F127" t="s"/>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3885,14 +3847,14 @@
       </c>
       <c r="D128" t="s"/>
       <c r="E128" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F128" t="s"/>
       <c r="G128" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H128" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3907,14 +3869,14 @@
       </c>
       <c r="D129" t="s"/>
       <c r="E129" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F129" t="s"/>
       <c r="G129" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H129" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3929,14 +3891,14 @@
       </c>
       <c r="D130" t="s"/>
       <c r="E130" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F130" t="s"/>
       <c r="G130" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H130" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3951,14 +3913,14 @@
       </c>
       <c r="D131" t="s"/>
       <c r="E131" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F131" t="s"/>
       <c r="G131" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="H131" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3973,14 +3935,14 @@
       </c>
       <c r="D132" t="s"/>
       <c r="E132" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F132" t="s"/>
       <c r="G132" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3995,14 +3957,14 @@
       </c>
       <c r="D133" t="s"/>
       <c r="E133" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F133" t="s"/>
       <c r="G133" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H133" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4017,14 +3979,14 @@
       </c>
       <c r="D134" t="s"/>
       <c r="E134" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F134" t="s"/>
       <c r="G134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H134" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4039,14 +4001,14 @@
       </c>
       <c r="D135" t="s"/>
       <c r="E135" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F135" t="s"/>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H135" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4061,14 +4023,14 @@
       </c>
       <c r="D136" t="s"/>
       <c r="E136" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F136" t="s"/>
       <c r="G136" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H136" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4083,14 +4045,14 @@
       </c>
       <c r="D137" t="s"/>
       <c r="E137" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F137" t="s"/>
       <c r="G137" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H137" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4105,14 +4067,14 @@
       </c>
       <c r="D138" t="s"/>
       <c r="E138" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F138" t="s"/>
       <c r="G138" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H138" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4127,14 +4089,14 @@
       </c>
       <c r="D139" t="s"/>
       <c r="E139" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F139" t="s"/>
       <c r="G139" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H139" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4149,14 +4111,14 @@
       </c>
       <c r="D140" t="s"/>
       <c r="E140" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F140" t="s"/>
       <c r="G140" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H140" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4171,14 +4133,14 @@
       </c>
       <c r="D141" t="s"/>
       <c r="E141" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F141" t="s"/>
       <c r="G141" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H141" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4193,14 +4155,14 @@
       </c>
       <c r="D142" t="s"/>
       <c r="E142" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F142" t="s"/>
       <c r="G142" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H142" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4215,14 +4177,14 @@
       </c>
       <c r="D143" t="s"/>
       <c r="E143" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F143" t="s"/>
       <c r="G143" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H143" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4237,14 +4199,14 @@
       </c>
       <c r="D144" t="s"/>
       <c r="E144" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F144" t="s"/>
       <c r="G144" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H144" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4259,14 +4221,14 @@
       </c>
       <c r="D145" t="s"/>
       <c r="E145" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F145" t="s"/>
       <c r="G145" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H145" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4281,14 +4243,14 @@
       </c>
       <c r="D146" t="s"/>
       <c r="E146" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F146" t="s"/>
       <c r="G146" t="s">
         <v>22</v>
       </c>
       <c r="H146" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4303,14 +4265,14 @@
       </c>
       <c r="D147" t="s"/>
       <c r="E147" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F147" t="s"/>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H147" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4325,14 +4287,14 @@
       </c>
       <c r="D148" t="s"/>
       <c r="E148" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F148" t="s"/>
       <c r="G148" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H148" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4347,14 +4309,14 @@
       </c>
       <c r="D149" t="s"/>
       <c r="E149" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F149" t="s"/>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4369,14 +4331,14 @@
       </c>
       <c r="D150" t="s"/>
       <c r="E150" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F150" t="s"/>
       <c r="G150" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4391,14 +4353,14 @@
       </c>
       <c r="D151" t="s"/>
       <c r="E151" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F151" t="s"/>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4413,14 +4375,14 @@
       </c>
       <c r="D152" t="s"/>
       <c r="E152" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F152" t="s"/>
       <c r="G152" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4435,14 +4397,14 @@
       </c>
       <c r="D153" t="s"/>
       <c r="E153" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F153" t="s"/>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H153" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4457,14 +4419,14 @@
       </c>
       <c r="D154" t="s"/>
       <c r="E154" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F154" t="s"/>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="H154" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4479,14 +4441,14 @@
       </c>
       <c r="D155" t="s"/>
       <c r="E155" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F155" t="s"/>
       <c r="G155" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H155" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4501,14 +4463,14 @@
       </c>
       <c r="D156" t="s"/>
       <c r="E156" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F156" t="s"/>
       <c r="G156" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H156" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4523,14 +4485,14 @@
       </c>
       <c r="D157" t="s"/>
       <c r="E157" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F157" t="s"/>
       <c r="G157" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4545,14 +4507,14 @@
       </c>
       <c r="D158" t="s"/>
       <c r="E158" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F158" t="s"/>
       <c r="G158" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4567,14 +4529,14 @@
       </c>
       <c r="D159" t="s"/>
       <c r="E159" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F159" t="s"/>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H159" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4589,14 +4551,14 @@
       </c>
       <c r="D160" t="s"/>
       <c r="E160" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F160" t="s"/>
       <c r="G160" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H160" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4611,14 +4573,14 @@
       </c>
       <c r="D161" t="s"/>
       <c r="E161" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F161" t="s"/>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H161" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4633,14 +4595,14 @@
       </c>
       <c r="D162" t="s"/>
       <c r="E162" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F162" t="s"/>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H162" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4655,14 +4617,14 @@
       </c>
       <c r="D163" t="s"/>
       <c r="E163" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F163" t="s"/>
       <c r="G163" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H163" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4677,14 +4639,14 @@
       </c>
       <c r="D164" t="s"/>
       <c r="E164" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F164" t="s"/>
       <c r="G164" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H164" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4699,14 +4661,14 @@
       </c>
       <c r="D165" t="s"/>
       <c r="E165" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F165" t="s"/>
       <c r="G165" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4721,14 +4683,14 @@
       </c>
       <c r="D166" t="s"/>
       <c r="E166" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F166" t="s"/>
       <c r="G166" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4743,14 +4705,14 @@
       </c>
       <c r="D167" t="s"/>
       <c r="E167" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F167" t="s"/>
       <c r="G167" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="H167" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4765,14 +4727,14 @@
       </c>
       <c r="D168" t="s"/>
       <c r="E168" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F168" t="s"/>
       <c r="G168" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="H168" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4787,14 +4749,14 @@
       </c>
       <c r="D169" t="s"/>
       <c r="E169" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F169" t="s"/>
       <c r="G169" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H169" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4809,14 +4771,14 @@
       </c>
       <c r="D170" t="s"/>
       <c r="E170" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F170" t="s"/>
       <c r="G170" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4831,14 +4793,14 @@
       </c>
       <c r="D171" t="s"/>
       <c r="E171" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F171" t="s"/>
       <c r="G171" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H171" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4853,14 +4815,14 @@
       </c>
       <c r="D172" t="s"/>
       <c r="E172" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F172" t="s"/>
       <c r="G172" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4875,14 +4837,14 @@
       </c>
       <c r="D173" t="s"/>
       <c r="E173" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F173" t="s"/>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H173" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4897,14 +4859,14 @@
       </c>
       <c r="D174" t="s"/>
       <c r="E174" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F174" t="s"/>
       <c r="G174" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H174" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4919,14 +4881,14 @@
       </c>
       <c r="D175" t="s"/>
       <c r="E175" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F175" t="s"/>
       <c r="G175" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H175" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4941,14 +4903,14 @@
       </c>
       <c r="D176" t="s"/>
       <c r="E176" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F176" t="s"/>
       <c r="G176" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H176" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4963,14 +4925,14 @@
       </c>
       <c r="D177" t="s"/>
       <c r="E177" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F177" t="s"/>
       <c r="G177" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H177" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -4985,14 +4947,14 @@
       </c>
       <c r="D178" t="s"/>
       <c r="E178" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F178" t="s"/>
       <c r="G178" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H178" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5007,14 +4969,14 @@
       </c>
       <c r="D179" t="s"/>
       <c r="E179" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F179" t="s"/>
       <c r="G179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H179" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5029,14 +4991,14 @@
       </c>
       <c r="D180" t="s"/>
       <c r="E180" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F180" t="s"/>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="H180" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5051,14 +5013,14 @@
       </c>
       <c r="D181" t="s"/>
       <c r="E181" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F181" t="s"/>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H181" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5073,14 +5035,14 @@
       </c>
       <c r="D182" t="s"/>
       <c r="E182" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F182" t="s"/>
       <c r="G182" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H182" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5095,14 +5057,14 @@
       </c>
       <c r="D183" t="s"/>
       <c r="E183" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F183" t="s"/>
       <c r="G183" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5117,14 +5079,14 @@
       </c>
       <c r="D184" t="s"/>
       <c r="E184" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F184" t="s"/>
       <c r="G184" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H184" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5139,14 +5101,14 @@
       </c>
       <c r="D185" t="s"/>
       <c r="E185" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F185" t="s"/>
       <c r="G185" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H185" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5161,14 +5123,14 @@
       </c>
       <c r="D186" t="s"/>
       <c r="E186" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F186" t="s"/>
       <c r="G186" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H186" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5183,14 +5145,14 @@
       </c>
       <c r="D187" t="s"/>
       <c r="E187" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F187" t="s"/>
       <c r="G187" t="s">
         <v>22</v>
       </c>
       <c r="H187" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5205,14 +5167,14 @@
       </c>
       <c r="D188" t="s"/>
       <c r="E188" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F188" t="s"/>
       <c r="G188" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H188" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5227,14 +5189,14 @@
       </c>
       <c r="D189" t="s"/>
       <c r="E189" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F189" t="s"/>
       <c r="G189" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H189" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5249,14 +5211,14 @@
       </c>
       <c r="D190" t="s"/>
       <c r="E190" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F190" t="s"/>
       <c r="G190" t="s">
         <v>22</v>
       </c>
       <c r="H190" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5271,14 +5233,14 @@
       </c>
       <c r="D191" t="s"/>
       <c r="E191" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F191" t="s"/>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H191" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5293,14 +5255,14 @@
       </c>
       <c r="D192" t="s"/>
       <c r="E192" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F192" t="s"/>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5315,14 +5277,14 @@
       </c>
       <c r="D193" t="s"/>
       <c r="E193" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F193" t="s"/>
       <c r="G193" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H193" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5337,14 +5299,14 @@
       </c>
       <c r="D194" t="s"/>
       <c r="E194" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F194" t="s"/>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H194" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5359,14 +5321,14 @@
       </c>
       <c r="D195" t="s"/>
       <c r="E195" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F195" t="s"/>
       <c r="G195" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H195" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5381,14 +5343,14 @@
       </c>
       <c r="D196" t="s"/>
       <c r="E196" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F196" t="s"/>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H196" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5403,14 +5365,14 @@
       </c>
       <c r="D197" t="s"/>
       <c r="E197" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F197" t="s"/>
       <c r="G197" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H197" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5425,14 +5387,14 @@
       </c>
       <c r="D198" t="s"/>
       <c r="E198" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F198" t="s"/>
       <c r="G198" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H198" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5447,14 +5409,14 @@
       </c>
       <c r="D199" t="s"/>
       <c r="E199" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F199" t="s"/>
       <c r="G199" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H199" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5469,14 +5431,14 @@
       </c>
       <c r="D200" t="s"/>
       <c r="E200" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F200" t="s"/>
       <c r="G200" t="s">
         <v>22</v>
       </c>
       <c r="H200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5491,300 +5453,34 @@
       </c>
       <c r="D201" t="s"/>
       <c r="E201" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F201" t="s"/>
       <c r="G201" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H201" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
-        <v>600</v>
-      </c>
+      <c r="B202" t="s"/>
       <c r="C202" t="s">
         <v>7</v>
       </c>
       <c r="D202" t="s"/>
       <c r="E202" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F202" t="s"/>
-      <c r="G202" t="s"/>
+      <c r="G202" t="s">
+        <v>19</v>
+      </c>
       <c r="H202" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>600</v>
-      </c>
-      <c r="C203" t="s">
-        <v>10</v>
-      </c>
-      <c r="D203" t="s">
-        <v>221</v>
-      </c>
-      <c r="E203" t="s">
-        <v>222</v>
-      </c>
-      <c r="F203" t="s"/>
-      <c r="G203" t="s">
-        <v>13</v>
-      </c>
-      <c r="H203" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>600</v>
-      </c>
-      <c r="C204" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" t="s"/>
-      <c r="E204" t="s">
-        <v>223</v>
-      </c>
-      <c r="F204" t="s"/>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>600</v>
-      </c>
-      <c r="C205" t="s">
-        <v>10</v>
-      </c>
-      <c r="D205" t="s">
-        <v>11</v>
-      </c>
-      <c r="E205" t="s">
-        <v>224</v>
-      </c>
-      <c r="F205" t="s"/>
-      <c r="G205" t="s">
-        <v>13</v>
-      </c>
-      <c r="H205" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>600</v>
-      </c>
-      <c r="C206" t="s">
-        <v>7</v>
-      </c>
-      <c r="D206" t="s"/>
-      <c r="E206" t="s">
-        <v>225</v>
-      </c>
-      <c r="F206" t="s"/>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>600</v>
-      </c>
-      <c r="C207" t="s">
-        <v>7</v>
-      </c>
-      <c r="D207" t="s"/>
-      <c r="E207" t="s">
-        <v>226</v>
-      </c>
-      <c r="F207" t="s"/>
-      <c r="G207" t="s"/>
-      <c r="H207" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>600</v>
-      </c>
-      <c r="C208" t="s">
-        <v>7</v>
-      </c>
-      <c r="D208" t="s"/>
-      <c r="E208" t="s">
-        <v>227</v>
-      </c>
-      <c r="F208" t="s"/>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>600</v>
-      </c>
-      <c r="C209" t="s">
-        <v>7</v>
-      </c>
-      <c r="D209" t="s"/>
-      <c r="E209" t="s">
-        <v>228</v>
-      </c>
-      <c r="F209" t="s"/>
-      <c r="G209" t="s"/>
-      <c r="H209" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>400</v>
-      </c>
-      <c r="C210" t="s">
-        <v>7</v>
-      </c>
-      <c r="D210" t="s"/>
-      <c r="E210" t="s">
-        <v>229</v>
-      </c>
-      <c r="F210" s="2" t="n">
-        <v>43435</v>
-      </c>
-      <c r="G210" t="s"/>
-      <c r="H210" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>900</v>
-      </c>
-      <c r="C211" t="s">
-        <v>10</v>
-      </c>
-      <c r="D211" t="s">
-        <v>11</v>
-      </c>
-      <c r="E211" t="s">
-        <v>230</v>
-      </c>
-      <c r="F211" s="2" t="n">
-        <v>43435</v>
-      </c>
-      <c r="G211" t="s">
-        <v>13</v>
-      </c>
-      <c r="H211" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>400</v>
-      </c>
-      <c r="C212" t="s">
-        <v>7</v>
-      </c>
-      <c r="D212" t="s"/>
-      <c r="E212" t="s">
-        <v>231</v>
-      </c>
-      <c r="F212" s="2" t="n">
-        <v>43435</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>600</v>
-      </c>
-      <c r="C213" t="s">
-        <v>10</v>
-      </c>
-      <c r="D213" t="s">
-        <v>232</v>
-      </c>
-      <c r="E213" t="s">
-        <v>233</v>
-      </c>
-      <c r="F213" s="2" t="n">
-        <v>43453</v>
-      </c>
-      <c r="G213" t="s">
-        <v>13</v>
-      </c>
-      <c r="H213" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>600</v>
-      </c>
-      <c r="C214" t="s">
-        <v>7</v>
-      </c>
-      <c r="D214" t="s"/>
-      <c r="E214" t="s">
-        <v>234</v>
-      </c>
-      <c r="F214" s="2" t="n">
-        <v>43455</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
